--- a/resources/excels/NGPSB.xlsx
+++ b/resources/excels/NGPSB.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C954C10-FE94-F14D-AC1D-961981A287AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ECC2AD-D4D4-E648-8864-13A0603CB5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20440" xr2:uid="{5F5B21B5-52A6-7741-BC00-65643DDBB703}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" activeTab="2" xr2:uid="{5F5B21B5-52A6-7741-BC00-65643DDBB703}"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="1" r:id="rId1"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId2"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -123,13 +125,55 @@
   </si>
   <si>
     <t>Row13</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Sub Sub Type</t>
+  </si>
+  <si>
+    <t>Issue Code ( Unique )</t>
+  </si>
+  <si>
+    <t>Service Enquiry</t>
+  </si>
+  <si>
+    <t>General Enquiry</t>
+  </si>
+  <si>
+    <t>F1001</t>
+  </si>
+  <si>
+    <t>How do I open account?</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>Complaint-FTR</t>
+  </si>
+  <si>
+    <t>I can’t Login</t>
+  </si>
+  <si>
+    <t>App related</t>
+  </si>
+  <si>
+    <t>Platform Related</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,16 +188,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF172B4D"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -200,11 +264,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -213,6 +301,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B369069E-F59C-1140-915C-AEF2DC5B1693}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,4 +722,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4FC2C9-E348-1545-ABCF-87A2C424AE4F}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85F3BEB-4CC5-B447-911B-F57479BC8B4C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/excels/NGPSB.xlsx
+++ b/resources/excels/NGPSB.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ECC2AD-D4D4-E648-8864-13A0603CB5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F9F482-D882-D447-AA93-3190668F10D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" activeTab="2" xr2:uid="{5F5B21B5-52A6-7741-BC00-65643DDBB703}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="3" xr2:uid="{5F5B21B5-52A6-7741-BC00-65643DDBB703}"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="1" r:id="rId1"/>
     <sheet name="FTRTickets-San" sheetId="2" r:id="rId2"/>
     <sheet name="NFTRTickets-San" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -167,13 +168,121 @@
   </si>
   <si>
     <t>Platform Related</t>
+  </si>
+  <si>
+    <t>Issue Field 1 - Label</t>
+  </si>
+  <si>
+    <t>Field 1 Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Mandatory </t>
+  </si>
+  <si>
+    <t>Issue Field 2 - Label</t>
+  </si>
+  <si>
+    <t>Field 2 Type</t>
+  </si>
+  <si>
+    <t>Issue Field 3 - Label</t>
+  </si>
+  <si>
+    <t>Field 3 Type</t>
+  </si>
+  <si>
+    <t>Issue Field 4 - Label</t>
+  </si>
+  <si>
+    <t>Field 4 Type</t>
+  </si>
+  <si>
+    <t>Issue Field 5 - Label</t>
+  </si>
+  <si>
+    <t>Field 5 Type</t>
+  </si>
+  <si>
+    <t>Issue Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Field 6 Type</t>
+  </si>
+  <si>
+    <t>Issue Field 7 - Label</t>
+  </si>
+  <si>
+    <t>Field 7 Type</t>
+  </si>
+  <si>
+    <t>Ticket Field 1 - Label</t>
+  </si>
+  <si>
+    <t>Ticket 1 Type</t>
+  </si>
+  <si>
+    <t>Ticket Field 2 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 3 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 4 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 5 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 7 - Label</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>ticketNumber</t>
+  </si>
+  <si>
+    <t>Service Complaint</t>
+  </si>
+  <si>
+    <t>Sim Swap Request - Voice, SMS CDRs NOT available</t>
+  </si>
+  <si>
+    <t>COM001</t>
+  </si>
+  <si>
+    <t>Technical Support_Backoffice</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +311,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -217,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -288,11 +404,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -305,6 +436,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85F3BEB-4CC5-B447-911B-F57479BC8B4C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -835,4 +980,269 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4BC879-78A0-414F-B86B-55DEF903E07E}">
+  <dimension ref="A1:BF2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+    </row>
+    <row r="2" spans="1:58" ht="75" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" s="15">
+        <v>3</v>
+      </c>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6">
+        <v>3</v>
+      </c>
+      <c r="BE2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/excels/NGPSB.xlsx
+++ b/resources/excels/NGPSB.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F9F482-D882-D447-AA93-3190668F10D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E54B012F-216E-CC48-8125-BF499A80B064}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="3" xr2:uid="{5F5B21B5-52A6-7741-BC00-65643DDBB703}"/>
+    <workbookView activeTab="2" windowHeight="20320" windowWidth="35840" xWindow="0" xr2:uid="{5F5B21B5-52A6-7741-BC00-65643DDBB703}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Headers" sheetId="1" r:id="rId1"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId2"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Headers" r:id="rId1" sheetId="1"/>
+    <sheet name="FTRTickets-San" r:id="rId2" sheetId="2"/>
+    <sheet name="NFTRTickets-San" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -155,21 +155,6 @@
     <t>How do I open account?</t>
   </si>
   <si>
-    <t>Auto01</t>
-  </si>
-  <si>
-    <t>Complaint-FTR</t>
-  </si>
-  <si>
-    <t>I can’t Login</t>
-  </si>
-  <si>
-    <t>App related</t>
-  </si>
-  <si>
-    <t>Platform Related</t>
-  </si>
-  <si>
     <t>Issue Field 1 - Label</t>
   </si>
   <si>
@@ -276,13 +261,53 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>N1021</t>
+  </si>
+  <si>
+    <t>Wrong Debit</t>
+  </si>
+  <si>
+    <t>Transaction Related</t>
+  </si>
+  <si>
+    <t>Request -FTR</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Text Box</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Amount of Transaction</t>
+  </si>
+  <si>
+    <t>Text box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Date of Transaction</t>
+  </si>
+  <si>
+    <t>Transaction Number</t>
+  </si>
+  <si>
+    <t>270522000147</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,20 +331,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF172B4D"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +368,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -421,41 +478,53 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -472,10 +541,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -510,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -562,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -673,21 +742,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -704,7 +773,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -756,24 +825,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B369069E-F59C-1140-915C-AEF2DC5B1693}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B369069E-F59C-1140-915C-AEF2DC5B1693}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -820,7 +889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row ht="51" r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,25 +934,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4FC2C9-E348-1545-ABCF-87A2C424AE4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4FC2C9-E348-1545-ABCF-87A2C424AE4F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="23.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="22.83203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="42.1640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="24.5" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -921,29 +990,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85F3BEB-4CC5-B447-911B-F57479BC8B4C}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85F3BEB-4CC5-B447-911B-F57479BC8B4C}">
+  <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.1640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="19.1640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.83203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="30.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="20.83203125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
@@ -959,34 +1028,238 @@
       <c r="E1" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>37</v>
+    <row ht="68" r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="BC2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4BC879-78A0-414F-B86B-55DEF903E07E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4BC879-78A0-414F-B86B-55DEF903E07E}">
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -1009,174 +1282,174 @@
         <v>32</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="T1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="W1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="8" t="s">
+      <c r="Y1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="Z1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="8" t="s">
+      <c r="AB1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AC1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AQ1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AY1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD1" s="10"/>
+      <c r="BD1" s="9"/>
       <c r="BE1" s="6"/>
       <c r="BF1" s="6"/>
     </row>
-    <row r="2" spans="1:58" ht="75" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>75</v>
+    <row ht="75" r="2" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1220,10 +1493,10 @@
       <c r="AS2" s="6"/>
       <c r="AT2" s="6"/>
       <c r="AU2" s="6"/>
-      <c r="AV2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW2" s="15">
+      <c r="AV2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW2" s="14">
         <v>3</v>
       </c>
       <c r="AX2" s="6"/>
@@ -1235,14 +1508,14 @@
       <c r="BD2" s="6">
         <v>3</v>
       </c>
-      <c r="BE2" s="14" t="s">
-        <v>76</v>
+      <c r="BE2" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/resources/excels/NGPSB.xlsx
+++ b/resources/excels/NGPSB.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>270522000147</t>
+  </si>
+  <si>
+    <t>310522000148</t>
   </si>
 </sst>
 </file>
@@ -841,8 +844,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -948,11 +951,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="23.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="22.83203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="42.1640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="24.5" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="42.1640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1005,11 +1008,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.1640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="19.1640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.83203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="30.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="20.83203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.2">
@@ -1246,7 +1249,7 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="BC2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
